--- a/docs/Mapping_casi_uso/matrimoni/Matr_006.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_006.xlsx
@@ -789,7 +789,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -797,34 +797,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F316"/>
+  <dimension ref="A1:G316"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="52.27734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="94.66796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="68.6484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="94.6640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="68.64453125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="32.48828125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5844,7 +5845,7 @@
         <v>87</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="252">
@@ -5864,7 +5865,7 @@
         <v>90</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253">
@@ -5904,7 +5905,7 @@
         <v>94</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="255">
@@ -6304,7 +6305,7 @@
         <v>178</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="275">
@@ -7150,273 +7151,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86BCA86E-1060-4642-9731-0471AF55DAC1}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0ACE05F1-EA35-476C-AD6C-1C00D4CABBD8}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FB33414-C24A-4898-938F-768EBEEA26D1}"/>
 </file>
--- a/docs/Mapping_casi_uso/matrimoni/Matr_006.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="250">
   <si>
     <t>Sezione</t>
   </si>
@@ -89,6 +89,9 @@
     <t>62</t>
   </si>
   <si>
+    <t>62-bis</t>
+  </si>
+  <si>
     <t>184</t>
   </si>
   <si>
@@ -609,6 +612,9 @@
   </si>
   <si>
     <t>legge</t>
+  </si>
+  <si>
+    <t>62-bis,184</t>
   </si>
   <si>
     <t>Regime patrimoniale - Atto Notarile</t>
@@ -814,7 +820,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G316"/>
+  <dimension ref="A1:G317"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1349,60 +1355,60 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
@@ -1410,19 +1416,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>9</v>
@@ -1430,19 +1436,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -1450,19 +1456,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -1470,19 +1476,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -1490,19 +1496,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -1510,19 +1516,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -1530,19 +1536,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1550,19 +1556,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1570,19 +1576,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1590,19 +1596,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1610,19 +1616,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1630,19 +1636,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1650,19 +1656,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1670,19 +1676,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1690,19 +1696,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1710,19 +1716,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1730,19 +1736,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1750,19 +1756,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1770,19 +1776,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1790,59 +1796,59 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1850,19 +1856,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1870,19 +1876,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1890,19 +1896,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1910,19 +1916,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1930,99 +1936,99 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F56" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F58" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -2030,19 +2036,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -2050,19 +2056,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -2070,19 +2076,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -2090,79 +2096,79 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F64" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F66" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>16</v>
@@ -2170,39 +2176,39 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -2210,19 +2216,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -2230,19 +2236,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -2250,79 +2256,79 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -2330,19 +2336,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -2350,19 +2356,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -2370,19 +2376,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -2390,19 +2396,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2410,99 +2416,99 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F82" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2510,19 +2516,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>9</v>
@@ -2530,19 +2536,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -2550,19 +2556,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>9</v>
@@ -2570,79 +2576,79 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F88" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F90" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>16</v>
@@ -2650,39 +2656,39 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>9</v>
@@ -2690,19 +2696,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>9</v>
@@ -2710,19 +2716,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>9</v>
@@ -2730,39 +2736,39 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>16</v>
@@ -2770,19 +2776,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>16</v>
@@ -2790,19 +2796,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>16</v>
@@ -2810,19 +2816,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>16</v>
@@ -2830,299 +2836,299 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F102" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F104" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F106" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F108" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F110" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F112" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F114" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>16</v>
@@ -3130,19 +3136,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>16</v>
@@ -3150,19 +3156,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>16</v>
@@ -3170,19 +3176,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>16</v>
@@ -3190,19 +3196,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="E119" s="2" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>16</v>
@@ -3210,19 +3216,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>16</v>
@@ -3230,19 +3236,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>16</v>
@@ -3250,19 +3256,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>16</v>
@@ -3270,299 +3276,299 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F124" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F125" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F126" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F128" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F130" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F131" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F132" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F133" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F134" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F135" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F136" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>16</v>
@@ -3570,19 +3576,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>16</v>
@@ -3590,19 +3596,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>16</v>
@@ -3610,19 +3616,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>16</v>
@@ -3630,19 +3636,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="E141" s="2" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>16</v>
@@ -3650,19 +3656,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>16</v>
@@ -3670,19 +3676,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>16</v>
@@ -3690,19 +3696,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>16</v>
@@ -3710,299 +3716,299 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F145" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F146" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F147" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F148" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F149" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F150" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F151" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F152" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F153" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F154" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F155" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F156" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F157" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F158" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>16</v>
@@ -4010,19 +4016,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>16</v>
@@ -4030,19 +4036,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>16</v>
@@ -4050,19 +4056,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>16</v>
@@ -4070,19 +4076,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="E163" s="2" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>16</v>
@@ -4090,19 +4096,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>16</v>
@@ -4110,19 +4116,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>16</v>
@@ -4130,19 +4136,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>16</v>
@@ -4150,299 +4156,299 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F167" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F168" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F169" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F170" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F171" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F172" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F173" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F174" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F175" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F176" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F177" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F178" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F179" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F180" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E181" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>16</v>
@@ -4450,19 +4456,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>16</v>
@@ -4470,19 +4476,19 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>16</v>
@@ -4490,19 +4496,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>16</v>
@@ -4510,39 +4516,39 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="E185" s="2" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>9</v>
@@ -4550,19 +4556,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E187" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>9</v>
@@ -4570,19 +4576,19 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E188" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>9</v>
@@ -4590,19 +4596,19 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E189" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>9</v>
@@ -4610,19 +4616,19 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E190" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>9</v>
@@ -4630,19 +4636,19 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>9</v>
@@ -4650,7 +4656,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>162</v>
@@ -4659,10 +4665,10 @@
         <v>8</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>9</v>
@@ -4670,19 +4676,19 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>9</v>
@@ -4690,7 +4696,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>165</v>
@@ -4699,10 +4705,10 @@
         <v>8</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>166</v>
+        <v>42</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>9</v>
@@ -4710,19 +4716,19 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E195" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>9</v>
@@ -4730,19 +4736,19 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E196" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>9</v>
@@ -4750,19 +4756,19 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>9</v>
@@ -4770,19 +4776,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E198" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>9</v>
@@ -4790,19 +4796,19 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E199" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>9</v>
@@ -4810,19 +4816,19 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E200" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>9</v>
@@ -4830,19 +4836,19 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B201" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E201" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>9</v>
@@ -4850,19 +4856,19 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B202" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E202" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>9</v>
@@ -4870,19 +4876,19 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E203" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>9</v>
@@ -4890,7 +4896,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>162</v>
@@ -4899,10 +4905,10 @@
         <v>8</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>9</v>
@@ -4910,19 +4916,19 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E205" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>9</v>
@@ -4930,7 +4936,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>165</v>
@@ -4939,10 +4945,10 @@
         <v>8</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>166</v>
+        <v>42</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>9</v>
@@ -4950,19 +4956,19 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B207" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E207" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>9</v>
@@ -4970,19 +4976,19 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E208" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>9</v>
@@ -4990,39 +4996,39 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D209" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="E209" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E210" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>20</v>
@@ -5030,19 +5036,19 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E211" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>20</v>
@@ -5050,39 +5056,39 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E212" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="F212" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E213" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>9</v>
@@ -5090,19 +5096,19 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B214" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E214" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>9</v>
@@ -5110,19 +5116,19 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E215" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>9</v>
@@ -5130,39 +5136,39 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E216" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="F216" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E217" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>20</v>
@@ -5170,19 +5176,19 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E218" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>20</v>
@@ -5190,39 +5196,39 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B219" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E219" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C219" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="F219" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E220" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>9</v>
@@ -5230,19 +5236,19 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B221" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E221" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>9</v>
@@ -5250,19 +5256,19 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B222" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E222" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>9</v>
@@ -5273,36 +5279,36 @@
         <v>190</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B224" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E224" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>21</v>
@@ -5310,19 +5316,19 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E225" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>21</v>
@@ -5330,39 +5336,39 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B226" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E226" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C226" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="F226" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E227" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>9</v>
@@ -5370,19 +5376,19 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B228" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E228" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>9</v>
@@ -5390,19 +5396,19 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E229" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>9</v>
@@ -5410,39 +5416,39 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D230" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="E230" s="2" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B231" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E231" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>22</v>
@@ -5450,19 +5456,19 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B232" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E232" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>22</v>
@@ -5470,39 +5476,39 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B233" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E233" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C233" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="F233" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B234" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E234" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>9</v>
@@ -5510,19 +5516,19 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B235" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E235" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>9</v>
@@ -5530,19 +5536,19 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B236" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E236" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>9</v>
@@ -5550,39 +5556,39 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D237" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B237" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="E237" s="2" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B238" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E238" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>23</v>
@@ -5590,19 +5596,19 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B239" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E239" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>23</v>
@@ -5610,39 +5616,39 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B240" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E240" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C240" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="F240" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B241" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E241" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>9</v>
@@ -5650,19 +5656,19 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B242" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E242" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>9</v>
@@ -5670,19 +5676,19 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B243" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E243" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>9</v>
@@ -5690,47 +5696,47 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D244" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B244" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="E244" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E245" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="F245" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F245" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>202</v>
@@ -5739,18 +5745,18 @@
         <v>8</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>203</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>204</v>
@@ -5759,18 +5765,18 @@
         <v>8</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>205</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>206</v>
@@ -5779,30 +5785,30 @@
         <v>8</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>207</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B249" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="C249" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E249" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>9</v>
@@ -5810,7 +5816,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>211</v>
@@ -5819,7 +5825,7 @@
         <v>8</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>212</v>
@@ -5830,19 +5836,19 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>85</v>
+        <v>213</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>87</v>
+        <v>214</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>9</v>
@@ -5850,59 +5856,59 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B253" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E253" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C253" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F253" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B254" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E254" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E254" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>9</v>
@@ -5910,39 +5916,39 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B255" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E255" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C255" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E255" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F255" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B256" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E256" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E256" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>9</v>
@@ -5950,19 +5956,19 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B257" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E257" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E257" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>9</v>
@@ -5970,19 +5976,19 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B258" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E258" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E258" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>9</v>
@@ -5990,19 +5996,19 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B259" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E259" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D259" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E259" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>9</v>
@@ -6010,19 +6016,19 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B260" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E260" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E260" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>9</v>
@@ -6030,19 +6036,19 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B261" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E261" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E261" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>9</v>
@@ -6050,19 +6056,19 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B262" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E262" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E262" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>9</v>
@@ -6070,19 +6076,19 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B263" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E263" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E263" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>9</v>
@@ -6090,19 +6096,19 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B264" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E264" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E264" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>9</v>
@@ -6110,19 +6116,19 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B265" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E265" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E265" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>9</v>
@@ -6130,19 +6136,19 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B266" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E266" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D266" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E266" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>9</v>
@@ -6150,19 +6156,19 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B267" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E267" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E267" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>9</v>
@@ -6170,19 +6176,19 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B268" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E268" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E268" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>9</v>
@@ -6190,19 +6196,19 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B269" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E269" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E269" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>9</v>
@@ -6210,19 +6216,19 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B270" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E270" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>9</v>
@@ -6230,19 +6236,19 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B271" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E271" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E271" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>9</v>
@@ -6250,19 +6256,19 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B272" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E272" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E272" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>9</v>
@@ -6270,19 +6276,19 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>9</v>
@@ -6290,19 +6296,19 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B274" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E274" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>9</v>
@@ -6310,39 +6316,39 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B275" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E275" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C275" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D275" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E275" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="F275" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B276" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E276" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E276" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>9</v>
@@ -6350,19 +6356,19 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B277" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E277" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>9</v>
@@ -6370,19 +6376,19 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B278" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E278" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E278" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>9</v>
@@ -6390,19 +6396,19 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B279" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E279" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E279" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>9</v>
@@ -6410,10 +6416,10 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>8</v>
@@ -6422,30 +6428,30 @@
         <v>216</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="282">
@@ -6453,116 +6459,116 @@
         <v>217</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>219</v>
+        <v>9</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B284" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E284" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C284" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D284" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E284" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F284" s="2" t="s">
-        <v>9</v>
+        <v>221</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B285" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E285" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C285" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D285" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E285" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F285" s="2" t="s">
-        <v>219</v>
+        <v>9</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B286" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E286" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C286" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E286" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F286" s="2" t="s">
-        <v>9</v>
+        <v>221</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B287" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E287" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E287" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>9</v>
@@ -6570,19 +6576,19 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B288" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E288" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D288" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E288" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>9</v>
@@ -6590,19 +6596,19 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B289" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E289" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C289" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E289" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>9</v>
@@ -6610,19 +6616,19 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B290" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E290" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D290" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E290" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>9</v>
@@ -6630,99 +6636,99 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B291" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E291" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C291" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D291" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E291" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F291" s="2" t="s">
-        <v>219</v>
+        <v>9</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B292" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E292" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C292" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E292" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F292" s="2" t="s">
-        <v>9</v>
+        <v>221</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B293" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E293" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C293" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D293" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E293" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F293" s="2" t="s">
-        <v>219</v>
+        <v>9</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B294" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E294" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C294" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E294" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F294" s="2" t="s">
-        <v>9</v>
+        <v>221</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B295" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E295" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D295" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E295" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>9</v>
@@ -6730,19 +6736,19 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B296" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E296" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D296" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E296" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>9</v>
@@ -6750,19 +6756,19 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B297" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E297" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D297" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E297" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>9</v>
@@ -6770,19 +6776,19 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B298" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E298" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D298" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E298" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>9</v>
@@ -6790,59 +6796,59 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B299" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E299" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C299" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D299" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E299" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F299" s="2" t="s">
-        <v>219</v>
+        <v>9</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B300" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E300" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C300" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D300" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E300" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F300" s="2" t="s">
-        <v>9</v>
+        <v>221</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B301" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E301" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D301" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E301" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F301" s="2" t="s">
         <v>9</v>
@@ -6850,19 +6856,19 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B302" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E302" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D302" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E302" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>9</v>
@@ -6870,19 +6876,19 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B303" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E303" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D303" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E303" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F303" s="2" t="s">
         <v>9</v>
@@ -6890,19 +6896,19 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D304" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B304" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D304" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="E304" s="2" t="s">
-        <v>222</v>
+        <v>131</v>
       </c>
       <c r="F304" s="2" t="s">
         <v>9</v>
@@ -6910,56 +6916,56 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>223</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E305" s="2" t="s">
         <v>224</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>225</v>
+        <v>9</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B306" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E306" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C306" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D306" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E306" s="2" t="s">
+      <c r="F306" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="F306" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>228</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E307" s="2" t="s">
         <v>229</v>
@@ -6970,16 +6976,16 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>230</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>231</v>
@@ -6990,7 +6996,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>232</v>
@@ -6999,7 +7005,7 @@
         <v>17</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="E309" s="2" t="s">
         <v>233</v>
@@ -7010,7 +7016,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>234</v>
@@ -7019,7 +7025,7 @@
         <v>17</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>235</v>
@@ -7030,7 +7036,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>236</v>
@@ -7039,7 +7045,7 @@
         <v>17</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>237</v>
@@ -7050,7 +7056,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>238</v>
@@ -7059,7 +7065,7 @@
         <v>17</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E312" s="2" t="s">
         <v>239</v>
@@ -7070,7 +7076,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>240</v>
@@ -7079,7 +7085,7 @@
         <v>17</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E313" s="2" t="s">
         <v>241</v>
@@ -7090,7 +7096,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>242</v>
@@ -7099,7 +7105,7 @@
         <v>17</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E314" s="2" t="s">
         <v>243</v>
@@ -7110,7 +7116,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>244</v>
@@ -7119,7 +7125,7 @@
         <v>17</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>197</v>
+        <v>68</v>
       </c>
       <c r="E315" s="2" t="s">
         <v>245</v>
@@ -7130,7 +7136,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>246</v>
@@ -7139,12 +7145,32 @@
         <v>17</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E316" s="2" t="s">
         <v>247</v>
       </c>
       <c r="F316" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F317" s="2" t="s">
         <v>9</v>
       </c>
     </row>
